--- a/biology/Botanique/Philibertia_woodii/Philibertia_woodii.xlsx
+++ b/biology/Botanique/Philibertia_woodii/Philibertia_woodii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Philibertia woodii est une espèce de plantes dicotylédones de la famille des Apocynaceae, sous-famille des Asclepiadoideae, originaire de Bolivie.
-C'est une plante grimpante secrétant un latex blanc, aux tiges de plusieurs mètres de long, tomenteuses à glabrescentes, portant de simples trichomes blancs ou jaunâtres non glanduleux. Les feuilles, opposées, pétiolées, à pubescence semblable à celle des tiges, ont un limbe ovale à ovale-lancéolé. Les fruits sont des follicules ovoïdes, lisses. Les graines sont inconnues[1].
-Cette espèce, nouvellement décrite en 2021 sur la base d'échantillons collectés en Bolivie, est similaire dans sa morphologie végétative et florale à Philibertia latiflora (Griseb.) Goyder, Philibertia longistyla Goyder et Philibertia speciosa (Malme) Goyder. Elle porte à 45 le nombre d'espèces rattachées au genre Philibertia[1].
-L'épithète spécifique, « woodii », est un hommage  à John R.I. Wood, botaniste britannique, éminent collecteur de la flore bolivienne, qui a collecté le plus grand nombre de spécimens de cette espèce[1].
+C'est une plante grimpante secrétant un latex blanc, aux tiges de plusieurs mètres de long, tomenteuses à glabrescentes, portant de simples trichomes blancs ou jaunâtres non glanduleux. Les feuilles, opposées, pétiolées, à pubescence semblable à celle des tiges, ont un limbe ovale à ovale-lancéolé. Les fruits sont des follicules ovoïdes, lisses. Les graines sont inconnues.
+Cette espèce, nouvellement décrite en 2021 sur la base d'échantillons collectés en Bolivie, est similaire dans sa morphologie végétative et florale à Philibertia latiflora (Griseb.) Goyder, Philibertia longistyla Goyder et Philibertia speciosa (Malme) Goyder. Elle porte à 45 le nombre d'espèces rattachées au genre Philibertia.
+L'épithète spécifique, « woodii », est un hommage  à John R.I. Wood, botaniste britannique, éminent collecteur de la flore bolivienne, qui a collecté le plus grand nombre de spécimens de cette espèce.
 </t>
         </is>
       </c>
